--- a/StructureDefinition-ru-core-activityType.xlsx
+++ b/StructureDefinition-ru-core-activityType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T12:52:13+03:00</t>
+    <t>2022-07-01T21:06:10+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
